--- a/SismovigilanciaCR/excelTest.xlsx
+++ b/SismovigilanciaCR/excelTest.xlsx
@@ -1,90 +1,89 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <workbookPr/>
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javie\Documents\Code_Projects\NetBeansProjects\Semestre I 2025\SismovigilanciaCR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EAC8560-9437-4960-802B-1A77302EC9AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A177A6-5C2A-42C0-AA45-2E6E82A86271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="student Details" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
-  <si>
-    <t>Fecha</t>
-  </si>
-  <si>
-    <t>Hora</t>
-  </si>
-  <si>
-    <t>Origen</t>
-  </si>
-  <si>
-    <t>Magnitud</t>
-  </si>
-  <si>
-    <t>Latitud</t>
-  </si>
-  <si>
-    <t>Longitud</t>
-  </si>
-  <si>
-    <t>Provincia</t>
-  </si>
-  <si>
-    <t>Maritimo</t>
-  </si>
-  <si>
-    <t>Ubicacion</t>
-  </si>
-  <si>
-    <t>hora</t>
-  </si>
-  <si>
-    <t>fecha</t>
-  </si>
-  <si>
-    <t>ubicación</t>
-  </si>
-  <si>
-    <t>provincia</t>
-  </si>
-  <si>
-    <t>Profundidad</t>
-  </si>
-  <si>
-    <t>SUBDUCCION</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t>CHOQUE_PLACAS</t>
-  </si>
-  <si>
-    <t>sí</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+  <si>
+    <t>Hola a todos</t>
+  </si>
+  <si>
+    <t>Hola</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Aptos Narrow"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -109,8 +108,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -139,39 +140,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="156082"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -204,26 +205,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -256,23 +240,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -334,6 +301,13 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -342,13 +316,6 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -413,31 +380,11 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -445,116 +392,117 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="10.77734375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.77734375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.5546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2">
+        <v>2.0856481481481483E-2</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>1</v>
+      </c>
+      <c r="F1">
+        <v>1</v>
+      </c>
+      <c r="G1">
+        <v>1</v>
+      </c>
+      <c r="H1">
+        <v>1</v>
+      </c>
+      <c r="I1">
+        <v>1</v>
+      </c>
+      <c r="J1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="F3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2">
-        <v>3.2</v>
-      </c>
-      <c r="F2">
-        <v>-4</v>
-      </c>
-      <c r="G2">
-        <v>3</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="J3" t="s">
         <v>11</v>
-      </c>
-      <c r="I2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3">
-        <v>3</v>
-      </c>
-      <c r="G3">
-        <v>4</v>
-      </c>
-      <c r="H3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
--- a/SismovigilanciaCR/excelTest.xlsx
+++ b/SismovigilanciaCR/excelTest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javie\Documents\Code_Projects\NetBeansProjects\Semestre I 2025\SismovigilanciaCR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A177A6-5C2A-42C0-AA45-2E6E82A86271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8139F190-031D-49D1-A951-C63636DAD94B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,42 +36,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
-  <si>
-    <t>Hola a todos</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="14">
   <si>
     <t>Hola</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
+    <t>INDEFINIDO</t>
+  </si>
+  <si>
+    <t>SIN_ASIGNAR</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>11-5-2025</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>18:24:2</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>kjkjkh</t>
+  </si>
+  <si>
+    <t>ALAJUELA</t>
+  </si>
+  <si>
+    <t>18:47:19</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>18:52:29</t>
   </si>
 </sst>
 </file>
@@ -392,22 +398,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="10.5546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.33203125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="2" max="3" bestFit="true" customWidth="true" width="11.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2">
         <v>2.0856481481481483E-2</v>
@@ -437,68 +442,324 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I3" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J3" t="s">
-        <v>11</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" t="s">
+        <v>2</v>
+      </c>
+      <c r="J8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" t="s">
+        <v>2</v>
+      </c>
+      <c r="J9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" t="s">
+        <v>2</v>
+      </c>
+      <c r="J10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" t="s">
+        <v>2</v>
+      </c>
+      <c r="J11" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/SismovigilanciaCR/excelTest.xlsx
+++ b/SismovigilanciaCR/excelTest.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="27">
   <si>
     <t>Hola</t>
   </si>
@@ -78,6 +78,45 @@
   </si>
   <si>
     <t>18:52:29</t>
+  </si>
+  <si>
+    <t>19:35:33</t>
+  </si>
+  <si>
+    <t>19:43:0</t>
+  </si>
+  <si>
+    <t>31-12-1899</t>
+  </si>
+  <si>
+    <t>00:00:00</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>6.0</t>
+  </si>
+  <si>
+    <t>7.0</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9.0</t>
+  </si>
+  <si>
+    <t>ewrewrweurwg</t>
+  </si>
+  <si>
+    <t>gfdgdf</t>
+  </si>
+  <si>
+    <t>7.5</t>
   </si>
 </sst>
 </file>
@@ -552,7 +591,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="F5" t="s">
         <v>6</v>
@@ -671,7 +710,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
@@ -703,7 +742,7 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
         <v>6</v>
@@ -735,7 +774,7 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
         <v>6</v>
@@ -759,6 +798,38 @@
         <v>2</v>
       </c>
       <c r="J11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" t="s">
+        <v>2</v>
+      </c>
+      <c r="J12" t="s">
         <v>3</v>
       </c>
     </row>
